--- a/demo/tablas_excel/CR/revocando/20_credenciales_describe.xlsx
+++ b/demo/tablas_excel/CR/revocando/20_credenciales_describe.xlsx
@@ -525,7 +525,7 @@
         <v>0.2824</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="G3" t="n">
         <v>39.3116</v>
@@ -556,7 +556,7 @@
         <v>0.02454248017893328</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04760952285695238</v>
+        <v>0.002380476142847619</v>
       </c>
       <c r="G4" t="n">
         <v>3.14432780309772</v>
@@ -587,7 +587,7 @@
         <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>1.67</v>
+        <v>0.08349999999999999</v>
       </c>
       <c r="G5" t="n">
         <v>34.75</v>
@@ -618,7 +618,7 @@
         <v>0.27</v>
       </c>
       <c r="F6" t="n">
-        <v>1.72</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>36.67</v>
@@ -649,7 +649,7 @@
         <v>0.28</v>
       </c>
       <c r="F7" t="n">
-        <v>1.74</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>39.01</v>
@@ -680,7 +680,7 @@
         <v>0.29</v>
       </c>
       <c r="F8" t="n">
-        <v>1.76</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="G8" t="n">
         <v>41.3</v>
@@ -711,7 +711,7 @@
         <v>0.36</v>
       </c>
       <c r="F9" t="n">
-        <v>1.87</v>
+        <v>0.0935</v>
       </c>
       <c r="G9" t="n">
         <v>45.58</v>
